--- a/Pedidos/Python/TestDataContenedor.xlsx
+++ b/Pedidos/Python/TestDataContenedor.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -363,21 +363,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
     </row>
